--- a/VOC.xlsx
+++ b/VOC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnm\Desktop\Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnm\Documents\Vocabulary\200WordsAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">Lucky </t>
   </si>
@@ -273,6 +273,138 @@
   </si>
   <si>
     <t>服務</t>
+  </si>
+  <si>
+    <t>Puff</t>
+  </si>
+  <si>
+    <t>噴氣</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>portal</t>
+  </si>
+  <si>
+    <t>門戶網站</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>有效</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>電視</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>cheers</t>
+  </si>
+  <si>
+    <t>乾杯</t>
+  </si>
+  <si>
+    <t>restroom</t>
+  </si>
+  <si>
+    <t>衛生間</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>主辦</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>菜單</t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t>激勵</t>
+  </si>
+  <si>
+    <t>sweet memories</t>
+  </si>
+  <si>
+    <t>甜蜜的回憶</t>
+  </si>
+  <si>
+    <t>unanimous</t>
+  </si>
+  <si>
+    <t>一致</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>前任的</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>執行</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>自覺</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>表現</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>Moral Value</t>
+  </si>
+  <si>
+    <t>道德價值</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>時刻</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>建築師</t>
   </si>
 </sst>
 </file>
@@ -612,10 +744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,6 +1090,182 @@
         <v>82</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VOC.xlsx
+++ b/VOC.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;words&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">Lucky </t>
   </si>
@@ -405,6 +406,135 @@
   </si>
   <si>
     <t>建築師</t>
+  </si>
+  <si>
+    <t>meeds</t>
+  </si>
+  <si>
+    <t>remunateremunerate</t>
+  </si>
+  <si>
+    <t>run-time</t>
+  </si>
+  <si>
+    <t>vagotropic</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t>crusted</t>
+  </si>
+  <si>
+    <t>transhistorical</t>
+  </si>
+  <si>
+    <t>washdays</t>
+  </si>
+  <si>
+    <t>wiped out</t>
+  </si>
+  <si>
+    <t>admirational</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>unbleached</t>
+  </si>
+  <si>
+    <t>palanquin</t>
+  </si>
+  <si>
+    <t>manipulandum</t>
+  </si>
+  <si>
+    <t>disorganised</t>
+  </si>
+  <si>
+    <t>sequesntiality</t>
+  </si>
+  <si>
+    <t>minikitchens</t>
+  </si>
+  <si>
+    <t>hide and seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrading </t>
+  </si>
+  <si>
+    <t>superinsulated</t>
+  </si>
+  <si>
+    <t>rapturous</t>
+  </si>
+  <si>
+    <t>polygamy</t>
+  </si>
+  <si>
+    <t>riglet</t>
+  </si>
+  <si>
+    <t>airdrop</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>setal</t>
+  </si>
+  <si>
+    <t>vicinal</t>
+  </si>
+  <si>
+    <t>albian</t>
+  </si>
+  <si>
+    <t>adduced</t>
+  </si>
+  <si>
+    <t>tucks</t>
+  </si>
+  <si>
+    <t>mouse-pieces</t>
+  </si>
+  <si>
+    <t>pothholders</t>
+  </si>
+  <si>
+    <t>paralysed</t>
+  </si>
+  <si>
+    <t>flippest</t>
+  </si>
+  <si>
+    <t>twistle</t>
+  </si>
+  <si>
+    <t>contornite</t>
+  </si>
+  <si>
+    <t>pacifiers</t>
+  </si>
+  <si>
+    <t>etudes</t>
+  </si>
+  <si>
+    <t>extra sensory</t>
+  </si>
+  <si>
+    <t>undershore</t>
+  </si>
+  <si>
+    <t>zymologist</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>disappoint</t>
   </si>
 </sst>
 </file>
@@ -459,10 +589,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70:H70"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1270,4 +1401,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>